--- a/figures/MATLAB_KODE/overbelaegning_AUH.xlsx
+++ b/figures/MATLAB_KODE/overbelaegning_AUH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -338,11 +338,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="157">
     <cellStyle name="Besøgt link" xfId="2" builtinId="9" hidden="1"/>
@@ -833,7 +834,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -846,8 +847,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
-        <f>(C1+D1+E1+F1+G1+H1)/6</f>
+      <c r="B1" s="2">
+        <f t="shared" ref="B1:B33" si="0">(C1+D1+E1+F1+G1+H1)/6</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="C1" s="1">
@@ -873,8 +874,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <f>(C2+D2+E2+F2+G2+H2)/6</f>
+      <c r="B2" s="4">
         <v>0</v>
       </c>
       <c r="C2" s="1">
@@ -900,8 +900,8 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <f>(C3+D3+E3+F3+G3+H3)/6</f>
+      <c r="B3" s="2">
+        <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="C3" s="1">
@@ -927,8 +927,8 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <f>(C4+D4+E4+F4+G4+H4)/6</f>
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C4" s="1">
@@ -954,8 +954,8 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <f>(C5+D5+E5+F5+G5+H5)/6</f>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C5" s="1">
@@ -981,8 +981,8 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <f>(C6+D6+E6+F6+G6+H6)/6</f>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="C6" s="1">
@@ -1008,8 +1008,8 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <f>(C7+D7+E7+F7+G7+H7)/6</f>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
         <v>18.166666666666668</v>
       </c>
       <c r="C7" s="1">
@@ -1035,8 +1035,8 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <f>(C8+D8+E8+F8+G8+H8)/6</f>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
         <v>13.333333333333334</v>
       </c>
       <c r="C8" s="1">
@@ -1062,8 +1062,8 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <f>(C9+D9+E9+F9+G9+H9)/6</f>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
         <v>7.833333333333333</v>
       </c>
       <c r="C9" s="1">
@@ -1089,8 +1089,8 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <f>(C10+D10+E10+F10+G10+H10)/6</f>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
       <c r="C10" s="1">
@@ -1116,8 +1116,8 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <f>(C11+D11+E11+F11+G11+H11)/6</f>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
         <v>18.5</v>
       </c>
       <c r="C11" s="1">
@@ -1143,8 +1143,8 @@
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <f>(C12+D12+E12+F12+G12+H12)/6</f>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
         <v>24.333333333333332</v>
       </c>
       <c r="C12" s="1">
@@ -1170,8 +1170,8 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <f>(C13+D13+E13+F13+G13+H13)/6</f>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
         <v>7.666666666666667</v>
       </c>
       <c r="C13" s="1">
@@ -1197,8 +1197,8 @@
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
-        <f>(C14+D14+E14+F14+G14+H14)/6</f>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
       <c r="C14" s="1">
@@ -1224,8 +1224,8 @@
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
-        <f>(C15+D15+E15+F15+G15+H15)/6</f>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
         <v>14.666666666666666</v>
       </c>
       <c r="C15" s="1">
@@ -1251,8 +1251,8 @@
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
-        <f>(C16+D16+E16+F16+G16+H16)/6</f>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
         <v>10.666666666666666</v>
       </c>
       <c r="C16" s="1">
@@ -1278,8 +1278,8 @@
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
-        <f>(C17+D17+E17+F17+G17+H17)/6</f>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
         <v>17.833333333333332</v>
       </c>
       <c r="C17" s="1">
@@ -1305,8 +1305,7 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
-        <f>(C18+D18+E18+F18+G18+H18)/6</f>
+      <c r="B18" s="4">
         <v>0</v>
       </c>
       <c r="C18" s="1">
@@ -1332,8 +1331,8 @@
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
-        <f>(C19+D19+E19+F19+G19+H19)/6</f>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
         <v>16.833333333333332</v>
       </c>
       <c r="C19" s="1">
@@ -1359,8 +1358,8 @@
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
-        <f>(C20+D20+E20+F20+G20+H20)/6</f>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
         <v>4.166666666666667</v>
       </c>
       <c r="C20" s="1">
@@ -1386,8 +1385,8 @@
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
-        <f>(C21+D21+E21+F21+G21+H21)/6</f>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
         <v>9.6666666666666661</v>
       </c>
       <c r="C21" s="1">
@@ -1413,8 +1412,8 @@
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
-        <f>(C22+D22+E22+F22+G22+H22)/6</f>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
       <c r="C22" s="1">
@@ -1440,8 +1439,8 @@
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
-        <f>(C23+D23+E23+F23+G23+H23)/6</f>
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C23" s="1">
@@ -1467,8 +1466,8 @@
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
-        <f>(C24+D24+E24+F24+G24+H24)/6</f>
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
       <c r="C24" s="1">
@@ -1494,8 +1493,8 @@
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
-        <f>(C25+D25+E25+F25+G25+H25)/6</f>
+      <c r="B25" s="2">
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="C25" s="1">
@@ -1521,8 +1520,8 @@
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
-        <f>(C26+D26+E26+F26+G26+H26)/6</f>
+      <c r="B26" s="2">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C26" s="1">
@@ -1548,8 +1547,8 @@
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
-        <f>(C27+D27+E27+F27+G27+H27)/6</f>
+      <c r="B27" s="2">
+        <f t="shared" si="0"/>
         <v>13.333333333333334</v>
       </c>
       <c r="C27" s="1">
@@ -1575,8 +1574,7 @@
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
-        <f>(C28+D28+E28+F28+G28+H28)/6</f>
+      <c r="B28" s="4">
         <v>0</v>
       </c>
       <c r="C28" s="1">
@@ -1602,8 +1600,8 @@
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
-        <f>(C29+D29+E29+F29+G29+H29)/6</f>
+      <c r="B29" s="2">
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
       <c r="C29" s="1">
@@ -1629,8 +1627,8 @@
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="3">
-        <f>(C30+D30+E30+F30+G30+H30)/6</f>
+      <c r="B30" s="2">
+        <f t="shared" si="0"/>
         <v>6.166666666666667</v>
       </c>
       <c r="C30" s="1">
@@ -1656,8 +1654,8 @@
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
-        <f>(C31+D31+E31+F31+G31+H31)/6</f>
+      <c r="B31" s="2">
+        <f t="shared" si="0"/>
         <v>13.666666666666666</v>
       </c>
       <c r="C31" s="1">
@@ -1683,8 +1681,8 @@
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="3">
-        <f>(C32+D32+E32+F32+G32+H32)/6</f>
+      <c r="B32" s="2">
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="C32" s="1">
@@ -1710,8 +1708,8 @@
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="3">
-        <f>(C33+D33+E33+F33+G33+H33)/6</f>
+      <c r="B33" s="2">
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
       <c r="C33" s="1">
@@ -1734,8 +1732,8 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
